--- a/tests/frameworks/framework_ukraine.xlsx
+++ b/tests/frameworks/framework_ukraine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16640" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Population Attributes" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
   <si>
     <t>Attribute Display Name</t>
   </si>
@@ -632,9 +632,6 @@
     <t>hba1c_test</t>
   </si>
   <si>
-    <t>Monitored</t>
-  </si>
-  <si>
     <t>ch_mon</t>
   </si>
   <si>
@@ -647,27 +644,18 @@
     <t>cont, mon</t>
   </si>
   <si>
-    <t>Linked to care</t>
-  </si>
-  <si>
     <t>ch_link</t>
   </si>
   <si>
     <t>ch_mon, link</t>
   </si>
   <si>
-    <t>Registered</t>
-  </si>
-  <si>
     <t>ch_reg</t>
   </si>
   <si>
     <t>ch_link, reg</t>
   </si>
   <si>
-    <t>Estimated</t>
-  </si>
-  <si>
     <t>ch_est</t>
   </si>
   <si>
@@ -711,6 +699,69 @@
   </si>
   <si>
     <t>Entry Point</t>
+  </si>
+  <si>
+    <t>Proportion of those monitored who are controlled</t>
+  </si>
+  <si>
+    <t>prop_cont</t>
+  </si>
+  <si>
+    <t>Denominator</t>
+  </si>
+  <si>
+    <t>Number of people with HbA1C monitored</t>
+  </si>
+  <si>
+    <t>Number of people linked to care</t>
+  </si>
+  <si>
+    <t>Number of people registered</t>
+  </si>
+  <si>
+    <t>Estimated number of people with T2DM</t>
+  </si>
+  <si>
+    <t>Proportion of those linked to care who are monitored</t>
+  </si>
+  <si>
+    <t>prop_mon</t>
+  </si>
+  <si>
+    <t>Proportion of those registered who are linked to care</t>
+  </si>
+  <si>
+    <t>prop_link</t>
+  </si>
+  <si>
+    <t>prop_reg</t>
+  </si>
+  <si>
+    <t>Proportion of people with estimated T2DM who are registered</t>
+  </si>
+  <si>
+    <t>Proportion of people with estimated T2DM who are controlled</t>
+  </si>
+  <si>
+    <t>prop_cont_est</t>
+  </si>
+  <si>
+    <t>Proportion of people with estimated T2DM who are monitored</t>
+  </si>
+  <si>
+    <t>prop_mon_est</t>
+  </si>
+  <si>
+    <t>Proportion of people with estimated T2DM who are linked to care</t>
+  </si>
+  <si>
+    <t>prop_link_est</t>
+  </si>
+  <si>
+    <t>Databook Order</t>
+  </si>
+  <si>
+    <t>Default Value</t>
   </si>
 </sst>
 </file>
@@ -790,7 +841,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,6 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1292,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1501,7 +1553,7 @@
         <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1512,7 +1564,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1523,7 +1575,7 @@
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1534,7 +1586,7 @@
         <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1542,7 +1594,7 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1557,18 +1609,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1579,94 +1634,180 @@
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1676,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1687,9 +1828,10 @@
     <col min="1" max="1" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1697,118 +1839,127 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="D8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
@@ -1822,7 +1973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/tests/frameworks/framework_ukraine.xlsx
+++ b/tests/frameworks/framework_ukraine.xlsx
@@ -575,18 +575,6 @@
     <t>Glucose controlled</t>
   </si>
   <si>
-    <t>Monitored not controlled</t>
-  </si>
-  <si>
-    <t>Linked not monitored</t>
-  </si>
-  <si>
-    <t>Registered not linked</t>
-  </si>
-  <si>
-    <t>Estimated not registered</t>
-  </si>
-  <si>
     <t>est</t>
   </si>
   <si>
@@ -762,6 +750,18 @@
   </si>
   <si>
     <t>Default Value</t>
+  </si>
+  <si>
+    <t>Estimated not screened</t>
+  </si>
+  <si>
+    <t>Screened not confirmed</t>
+  </si>
+  <si>
+    <t>Diagnosed not monitored</t>
+  </si>
+  <si>
+    <t>Monitored not on treatment</t>
   </si>
 </sst>
 </file>
@@ -1345,12 +1345,12 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1373,13 +1373,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -1461,7 +1461,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -1475,16 +1475,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -1516,90 +1516,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1634,125 +1634,125 @@
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -1760,16 +1760,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -1794,16 +1794,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -1839,79 +1839,79 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5">
         <v>0.02</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
       </c>
       <c r="E8" s="5">
         <v>0.05</v>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
